--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2126,7 +2126,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2126,7 +2123,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3916,10 +3913,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3943,13 +3940,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3957,13 +3954,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3997,7 +3994,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4067,13 +4064,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4081,10 +4078,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4107,13 +4104,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4164,7 +4161,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4199,10 +4196,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4231,7 +4228,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4284,7 +4281,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4319,10 +4316,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4345,19 +4342,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4406,7 +4403,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4427,10 +4424,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4441,10 +4438,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4467,13 +4464,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4524,7 +4521,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4559,10 +4556,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4591,7 +4588,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4644,7 +4641,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4679,10 +4676,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4708,65 +4705,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4787,10 +4784,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4801,10 +4798,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4827,16 +4824,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4886,7 +4883,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4907,10 +4904,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4921,10 +4918,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4950,65 +4947,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5029,10 +5026,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5043,10 +5040,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5069,19 +5066,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5130,7 +5127,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5151,10 +5148,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5165,10 +5162,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5191,19 +5188,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5252,7 +5249,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5273,10 +5270,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5287,10 +5284,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5313,19 +5310,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5374,7 +5371,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5395,10 +5392,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5409,13 +5406,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5449,7 +5446,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5459,7 +5456,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5519,13 +5516,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5533,13 +5530,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5573,7 +5570,7 @@
         <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5583,7 +5580,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5643,13 +5640,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5657,13 +5654,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
@@ -5697,7 +5694,7 @@
         <v>201</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5707,7 +5704,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5767,13 +5764,13 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5781,13 +5778,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>82</v>
@@ -5821,7 +5818,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5831,7 +5828,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -5891,13 +5888,13 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5905,14 +5902,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5934,16 +5931,16 @@
         <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5968,14 +5965,14 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5992,7 +5989,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>92</v>
@@ -6007,30 +6004,30 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AO32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6053,19 +6050,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6114,7 +6111,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6129,19 +6126,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6149,10 +6146,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6175,16 +6172,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6234,7 +6231,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6255,13 +6252,13 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6269,14 +6266,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6295,19 +6292,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6356,7 +6353,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6371,19 +6368,19 @@
         <v>170</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6391,14 +6388,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6417,19 +6414,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6478,7 +6475,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6493,19 +6490,19 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6513,10 +6510,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6539,16 +6536,16 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6598,7 +6595,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6619,13 +6616,13 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6633,10 +6630,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6659,19 +6656,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6720,7 +6717,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6735,19 +6732,19 @@
         <v>170</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6755,10 +6752,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6781,19 +6778,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6842,7 +6839,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6851,7 +6848,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6860,27 +6857,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6906,16 +6903,16 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6940,14 +6937,14 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6964,7 +6961,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6973,7 +6970,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>105</v>
@@ -6988,7 +6985,7 @@
         <v>106</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6999,14 +6996,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7028,16 +7025,16 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7062,14 +7059,14 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7086,7 +7083,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7104,27 +7101,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7147,19 +7144,19 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7208,7 +7205,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7229,10 +7226,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7243,10 +7240,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7272,13 +7269,13 @@
         <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7304,14 +7301,14 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7328,7 +7325,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7346,27 +7343,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7392,16 +7389,16 @@
         <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7426,14 +7423,14 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7450,7 +7447,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7471,10 +7468,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7485,10 +7482,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7511,16 +7508,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7570,7 +7567,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7588,27 +7585,27 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7631,16 +7628,16 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7690,7 +7687,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7708,27 +7705,27 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7751,19 +7748,19 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7812,7 +7809,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7824,19 +7821,19 @@
         <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7847,10 +7844,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7873,13 +7870,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7930,7 +7927,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7965,10 +7962,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7997,7 +7994,7 @@
         <v>141</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>143</v>
@@ -8050,7 +8047,7 @@
         <v>146</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8085,14 +8082,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8114,10 +8111,10 @@
         <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>143</v>
@@ -8172,7 +8169,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8207,10 +8204,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8233,16 +8230,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8292,7 +8289,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8301,22 +8298,22 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AK51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8327,10 +8324,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8353,16 +8350,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8412,7 +8409,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8421,22 +8418,22 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8447,10 +8444,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8476,16 +8473,16 @@
         <v>198</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8513,11 +8510,11 @@
         <v>119</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8534,7 +8531,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8552,13 +8549,13 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AM53" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="AN53" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8569,10 +8566,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8598,16 +8595,16 @@
         <v>198</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8632,14 +8629,14 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8656,7 +8653,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8674,13 +8671,13 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="AN54" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8691,10 +8688,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8717,19 +8714,19 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8778,7 +8775,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8790,19 +8787,19 @@
         <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8813,10 +8810,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8839,16 +8836,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8898,7 +8895,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8919,10 +8916,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8933,10 +8930,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8959,16 +8956,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9018,7 +9015,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9039,10 +9036,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9053,10 +9050,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9079,16 +9076,16 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9138,7 +9135,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9159,10 +9156,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9173,10 +9170,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9199,19 +9196,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9260,7 +9257,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9281,10 +9278,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9295,10 +9292,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9321,13 +9318,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9378,7 +9375,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9413,10 +9410,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9445,7 +9442,7 @@
         <v>141</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>143</v>
@@ -9498,7 +9495,7 @@
         <v>146</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9533,14 +9530,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9562,10 +9559,10 @@
         <v>140</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>143</v>
@@ -9620,7 +9617,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9655,10 +9652,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9684,16 +9681,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9718,14 +9715,14 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9742,7 +9739,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>92</v>
@@ -9760,16 +9757,16 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>82</v>
@@ -9777,10 +9774,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9803,19 +9800,19 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="O64" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9864,7 +9861,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9882,27 +9879,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9928,16 +9925,16 @@
         <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N65" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="O65" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9962,14 +9959,14 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
       </c>
@@ -9986,7 +9983,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9995,7 +9992,7 @@
         <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10010,7 +10007,7 @@
         <v>106</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10021,14 +10018,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10050,16 +10047,16 @@
         <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10084,14 +10081,14 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10108,7 +10105,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10126,27 +10123,27 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP66" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10172,16 +10169,16 @@
         <v>83</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="N67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10230,7 +10227,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10251,10 +10248,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="555">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -3913,10 +3916,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3940,13 +3943,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3954,13 +3957,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3994,7 +3997,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4064,13 +4067,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4078,10 +4081,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4104,13 +4107,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4161,7 +4164,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4196,10 +4199,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4228,7 +4231,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4281,7 +4284,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4316,10 +4319,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4327,13 +4330,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4342,19 +4345,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4403,7 +4406,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4424,10 +4427,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4438,10 +4441,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4464,13 +4467,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4521,7 +4524,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4556,10 +4559,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4588,7 +4591,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4641,7 +4644,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4676,10 +4679,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4687,13 +4690,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4705,23 +4708,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4763,7 +4766,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4784,10 +4787,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4798,10 +4801,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4824,16 +4827,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4883,7 +4886,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4904,10 +4907,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4918,10 +4921,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4929,13 +4932,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4947,23 +4950,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5005,7 +5008,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5026,10 +5029,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5040,10 +5043,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5066,19 +5069,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5127,7 +5130,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5148,10 +5151,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5162,10 +5165,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5188,19 +5191,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5249,7 +5252,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5270,10 +5273,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5284,10 +5287,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5310,19 +5313,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5371,7 +5374,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5392,10 +5395,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5406,13 +5409,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5446,7 +5449,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5456,7 +5459,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5516,13 +5519,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5530,13 +5533,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5570,7 +5573,7 @@
         <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5580,7 +5583,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5640,13 +5643,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5654,13 +5657,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
@@ -5694,7 +5697,7 @@
         <v>201</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5704,7 +5707,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5764,13 +5767,13 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5778,13 +5781,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>82</v>
@@ -5818,7 +5821,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5828,7 +5831,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -5888,13 +5891,13 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5902,14 +5905,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5931,16 +5934,16 @@
         <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5965,13 +5968,13 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
@@ -5989,7 +5992,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>92</v>
@@ -6004,30 +6007,30 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6050,19 +6053,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6111,7 +6114,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6126,19 +6129,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6146,10 +6149,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6172,16 +6175,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6231,7 +6234,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6252,13 +6255,13 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6266,14 +6269,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6292,19 +6295,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6353,7 +6356,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6368,19 +6371,19 @@
         <v>170</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6388,14 +6391,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6414,19 +6417,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6475,7 +6478,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6490,19 +6493,19 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6510,10 +6513,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6536,16 +6539,16 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6595,7 +6598,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6616,13 +6619,13 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6630,10 +6633,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6656,19 +6659,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6717,7 +6720,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6732,19 +6735,19 @@
         <v>170</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6752,10 +6755,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6778,19 +6781,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6839,7 +6842,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6848,7 +6851,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6857,27 +6860,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6903,16 +6906,16 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6937,13 +6940,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6961,7 +6964,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6970,7 +6973,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>105</v>
@@ -6985,7 +6988,7 @@
         <v>106</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6996,14 +6999,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7025,16 +7028,16 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7059,13 +7062,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7083,7 +7086,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7101,27 +7104,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7144,19 +7147,19 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7205,7 +7208,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7226,10 +7229,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7240,10 +7243,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7269,13 +7272,13 @@
         <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7301,13 +7304,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7325,7 +7328,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7343,27 +7346,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7389,16 +7392,16 @@
         <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7423,13 +7426,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7447,7 +7450,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7468,10 +7471,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7482,10 +7485,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7508,16 +7511,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7567,7 +7570,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7585,27 +7588,27 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7628,16 +7631,16 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7687,7 +7690,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7705,27 +7708,27 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7748,19 +7751,19 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7809,7 +7812,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7821,7 +7824,7 @@
         <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7830,10 +7833,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7844,10 +7847,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7870,13 +7873,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7927,7 +7930,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7962,10 +7965,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7994,7 +7997,7 @@
         <v>141</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>143</v>
@@ -8047,7 +8050,7 @@
         <v>146</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8082,14 +8085,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8111,10 +8114,10 @@
         <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>143</v>
@@ -8169,7 +8172,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8204,10 +8207,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8230,16 +8233,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8289,7 +8292,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8298,10 +8301,10 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8310,10 +8313,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8324,10 +8327,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8350,16 +8353,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8409,7 +8412,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8418,10 +8421,10 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8430,10 +8433,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8444,10 +8447,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8473,16 +8476,16 @@
         <v>198</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8510,10 +8513,10 @@
         <v>119</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8531,7 +8534,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8549,13 +8552,13 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8566,10 +8569,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8595,16 +8598,16 @@
         <v>198</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8629,13 +8632,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8653,7 +8656,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8671,13 +8674,13 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8688,10 +8691,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8714,19 +8717,19 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8775,7 +8778,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8787,7 +8790,7 @@
         <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8796,10 +8799,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8810,10 +8813,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8836,16 +8839,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8895,7 +8898,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8916,10 +8919,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8930,10 +8933,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8956,16 +8959,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9015,7 +9018,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9036,10 +9039,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9050,10 +9053,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9076,16 +9079,16 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9135,7 +9138,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9156,10 +9159,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9170,10 +9173,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9196,19 +9199,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9257,7 +9260,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9278,10 +9281,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9292,10 +9295,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9318,13 +9321,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9375,7 +9378,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9410,10 +9413,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9442,7 +9445,7 @@
         <v>141</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>143</v>
@@ -9495,7 +9498,7 @@
         <v>146</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9530,14 +9533,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9559,10 +9562,10 @@
         <v>140</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>143</v>
@@ -9617,7 +9620,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9652,10 +9655,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9681,16 +9684,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9715,13 +9718,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9739,7 +9742,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>92</v>
@@ -9757,16 +9760,16 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>82</v>
@@ -9774,10 +9777,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9800,19 +9803,19 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9861,7 +9864,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9879,27 +9882,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9925,16 +9928,16 @@
         <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9959,13 +9962,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -9983,7 +9986,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9992,7 +9995,7 @@
         <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10007,7 +10010,7 @@
         <v>106</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10018,14 +10021,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10047,16 +10050,16 @@
         <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10081,13 +10084,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10105,7 +10108,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10123,27 +10126,27 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10169,16 +10172,16 @@
         <v>83</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10227,7 +10230,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10248,10 +10251,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
+++ b/output/StructureDefinition-cls-l3-age-at-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
